--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N2">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q2">
-        <v>229.9153511260398</v>
+        <v>87.93324367586666</v>
       </c>
       <c r="R2">
-        <v>229.9153511260398</v>
+        <v>791.3991930828</v>
       </c>
       <c r="S2">
-        <v>0.09029442741309139</v>
+        <v>0.02862911209749067</v>
       </c>
       <c r="T2">
-        <v>0.09029442741309139</v>
+        <v>0.02862911209749068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N3">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q3">
-        <v>492.2659461846504</v>
+        <v>259.2234707310253</v>
       </c>
       <c r="R3">
-        <v>492.2659461846504</v>
+        <v>2333.011236579228</v>
       </c>
       <c r="S3">
-        <v>0.1933271159494686</v>
+        <v>0.08439740752900154</v>
       </c>
       <c r="T3">
-        <v>0.1933271159494686</v>
+        <v>0.08439740752900156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>224.46232497262</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>224.46232497262</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.6533843570581787</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N4">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P4">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q4">
-        <v>529.660378024455</v>
+        <v>583.2104282819237</v>
       </c>
       <c r="R4">
-        <v>529.660378024455</v>
+        <v>5248.893854537313</v>
       </c>
       <c r="S4">
-        <v>0.2080129940123128</v>
+        <v>0.1898803686721178</v>
       </c>
       <c r="T4">
-        <v>0.2080129940123128</v>
+        <v>0.1898803686721178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H5">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I5">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J5">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N5">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O5">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P5">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q5">
-        <v>1134.042445916513</v>
+        <v>183.4501401311333</v>
       </c>
       <c r="R5">
-        <v>1134.042445916513</v>
+        <v>1651.0512611802</v>
       </c>
       <c r="S5">
-        <v>0.4453713630458658</v>
+        <v>0.05972729318929931</v>
       </c>
       <c r="T5">
-        <v>0.4453713630458658</v>
+        <v>0.05972729318929932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H6">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I6">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J6">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N6">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P6">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q6">
-        <v>0.3952241545140929</v>
+        <v>540.8032280280446</v>
       </c>
       <c r="R6">
-        <v>0.3952241545140929</v>
+        <v>4867.229052252402</v>
       </c>
       <c r="S6">
-        <v>0.0001552159895235085</v>
+        <v>0.1760735256733051</v>
       </c>
       <c r="T6">
-        <v>0.0001552159895235085</v>
+        <v>0.1760735256733051</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.167490218804842</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H7">
-        <v>0.167490218804842</v>
+        <v>682.901626</v>
       </c>
       <c r="I7">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J7">
-        <v>0.0004875450209325077</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.05226187091684</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N7">
-        <v>5.05226187091684</v>
+        <v>16.035208</v>
       </c>
       <c r="O7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P7">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q7">
-        <v>0.8462044462192219</v>
+        <v>1216.718846272023</v>
       </c>
       <c r="R7">
-        <v>0.8462044462192219</v>
+        <v>10950.46961644821</v>
       </c>
       <c r="S7">
-        <v>0.0003323290314089991</v>
+        <v>0.3961366462205393</v>
       </c>
       <c r="T7">
-        <v>0.0003323290314089991</v>
+        <v>0.3961366462205393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,184 +906,184 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.398914818814195</v>
+        <v>0.194568</v>
       </c>
       <c r="H8">
-        <v>0.398914818814195</v>
+        <v>0.583704</v>
       </c>
       <c r="I8">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J8">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N8">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O8">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P8">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q8">
-        <v>0.9413133084069081</v>
+        <v>0.1568023512</v>
       </c>
       <c r="R8">
-        <v>0.9413133084069081</v>
+        <v>1.4112211608</v>
       </c>
       <c r="S8">
-        <v>0.000369681040359632</v>
+        <v>5.105136467161782E-05</v>
       </c>
       <c r="T8">
-        <v>0.000369681040359632</v>
+        <v>5.105136467161783E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.398914818814195</v>
+        <v>0.194568</v>
       </c>
       <c r="H9">
-        <v>0.398914818814195</v>
+        <v>0.583704</v>
       </c>
       <c r="I9">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J9">
-        <v>0.001161195770576136</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N9">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O9">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P9">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q9">
-        <v>2.015422128838657</v>
+        <v>0.462246677112</v>
       </c>
       <c r="R9">
-        <v>2.015422128838657</v>
+        <v>4.160220094008</v>
       </c>
       <c r="S9">
-        <v>0.0007915147302165043</v>
+        <v>0.0001504972565837921</v>
       </c>
       <c r="T9">
-        <v>0.0007915147302165043</v>
+        <v>0.0001504972565837922</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.768454201671312</v>
+        <v>0.194568</v>
       </c>
       <c r="H10">
-        <v>0.768454201671312</v>
+        <v>0.583704</v>
       </c>
       <c r="I10">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J10">
-        <v>0.002236882980468602</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.35968498539371</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N10">
-        <v>2.35968498539371</v>
+        <v>16.035208</v>
       </c>
       <c r="O10">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P10">
-        <v>0.3183623724156452</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q10">
-        <v>1.813309841646505</v>
+        <v>1.039979450048</v>
       </c>
       <c r="R10">
-        <v>1.813309841646505</v>
+        <v>9.359815050432001</v>
       </c>
       <c r="S10">
-        <v>0.0007121393724781635</v>
+        <v>0.0003385942222745765</v>
       </c>
       <c r="T10">
-        <v>0.0007121393724781635</v>
+        <v>0.0003385942222745765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.768454201671312</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H11">
-        <v>0.768454201671312</v>
+        <v>1.355105</v>
       </c>
       <c r="I11">
-        <v>0.002236882980468602</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J11">
-        <v>0.002236882980468602</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.05226187091684</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N11">
-        <v>5.05226187091684</v>
+        <v>2.4177</v>
       </c>
       <c r="O11">
-        <v>0.6816376275843548</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P11">
-        <v>0.6816376275843548</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q11">
-        <v>3.882431862649809</v>
+        <v>0.3640263731666666</v>
       </c>
       <c r="R11">
-        <v>3.882431862649809</v>
+        <v>3.2762373585</v>
       </c>
       <c r="S11">
-        <v>0.001524743607990438</v>
+        <v>0.0001185189060265694</v>
       </c>
       <c r="T11">
-        <v>0.001524743607990438</v>
+        <v>0.0001185189060265694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.3060048223797</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H12">
-        <v>20.3060048223797</v>
+        <v>1.355105</v>
       </c>
       <c r="I12">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J12">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.35968498539371</v>
+        <v>2.375759</v>
       </c>
       <c r="N12">
-        <v>2.35968498539371</v>
+        <v>7.127277</v>
       </c>
       <c r="O12">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P12">
-        <v>0.3183623724156452</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q12">
-        <v>47.91577469270164</v>
+        <v>1.073134299898333</v>
       </c>
       <c r="R12">
-        <v>47.91577469270164</v>
+        <v>9.658208699085</v>
       </c>
       <c r="S12">
-        <v>0.01881791458787971</v>
+        <v>0.0003493887053763202</v>
       </c>
       <c r="T12">
-        <v>0.01881791458787971</v>
+        <v>0.0003493887053763203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.3060048223797</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H13">
-        <v>20.3060048223797</v>
+        <v>1.355105</v>
       </c>
       <c r="I13">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J13">
-        <v>0.05910847580728402</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.05226187091684</v>
+        <v>5.345069333333334</v>
       </c>
       <c r="N13">
-        <v>5.05226187091684</v>
+        <v>16.035208</v>
       </c>
       <c r="O13">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="P13">
-        <v>0.6816376275843548</v>
+        <v>0.6268605172323812</v>
       </c>
       <c r="Q13">
-        <v>102.5912539147624</v>
+        <v>2.414376726315556</v>
       </c>
       <c r="R13">
-        <v>102.5912539147624</v>
+        <v>21.72939053684</v>
       </c>
       <c r="S13">
-        <v>0.04029056121940431</v>
+        <v>0.0007860674649743534</v>
       </c>
       <c r="T13">
-        <v>0.04029056121940431</v>
+        <v>0.0007860674649743534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.318871</v>
+      </c>
+      <c r="I14">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J14">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.4177</v>
+      </c>
+      <c r="O14">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P14">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q14">
+        <v>0.6229260462999999</v>
+      </c>
+      <c r="R14">
+        <v>5.606334416699999</v>
+      </c>
+      <c r="S14">
+        <v>0.0002028108922457942</v>
+      </c>
+      <c r="T14">
+        <v>0.0002028108922457943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.318871</v>
+      </c>
+      <c r="I15">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J15">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.375759</v>
+      </c>
+      <c r="N15">
+        <v>7.127277</v>
+      </c>
+      <c r="O15">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P15">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q15">
+        <v>1.836359549363</v>
+      </c>
+      <c r="R15">
+        <v>16.527235944267</v>
+      </c>
+      <c r="S15">
+        <v>0.0005978779036493062</v>
+      </c>
+      <c r="T15">
+        <v>0.0005978779036493063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7729569999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.318871</v>
+      </c>
+      <c r="I16">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="J16">
+        <v>0.002145816331084288</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N16">
+        <v>16.035208</v>
+      </c>
+      <c r="O16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P16">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q16">
+        <v>4.131508756685333</v>
+      </c>
+      <c r="R16">
+        <v>37.18357881016799</v>
+      </c>
+      <c r="S16">
+        <v>0.001345127535189187</v>
+      </c>
+      <c r="T16">
+        <v>0.001345127535189187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H17">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I17">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J17">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.4177</v>
+      </c>
+      <c r="O17">
+        <v>0.09451456273674329</v>
+      </c>
+      <c r="P17">
+        <v>0.0945145627367433</v>
+      </c>
+      <c r="Q17">
+        <v>17.77079478983333</v>
+      </c>
+      <c r="R17">
+        <v>159.9371531085</v>
+      </c>
+      <c r="S17">
+        <v>0.00578577628700932</v>
+      </c>
+      <c r="T17">
+        <v>0.005785776287009321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H18">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I18">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J18">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.375759</v>
+      </c>
+      <c r="N18">
+        <v>7.127277</v>
+      </c>
+      <c r="O18">
+        <v>0.2786249200308754</v>
+      </c>
+      <c r="P18">
+        <v>0.2786249200308755</v>
+      </c>
+      <c r="Q18">
+        <v>52.38754890073166</v>
+      </c>
+      <c r="R18">
+        <v>471.487940106585</v>
+      </c>
+      <c r="S18">
+        <v>0.01705622296295939</v>
+      </c>
+      <c r="T18">
+        <v>0.0170562229629594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>22.05086833333333</v>
+      </c>
+      <c r="H19">
+        <v>66.15260499999999</v>
+      </c>
+      <c r="I19">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="J19">
+        <v>0.06121571236725463</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N19">
+        <v>16.035208</v>
+      </c>
+      <c r="O19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P19">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q19">
+        <v>117.8634201018711</v>
+      </c>
+      <c r="R19">
+        <v>1060.77078091684</v>
+      </c>
+      <c r="S19">
+        <v>0.03837371311728591</v>
+      </c>
+      <c r="T19">
+        <v>0.03837371311728591</v>
       </c>
     </row>
   </sheetData>
